--- a/ExcelData.xlsx
+++ b/ExcelData.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="INWARD" sheetId="1" r:id="rId1"/>
     <sheet name="OUTWARD" sheetId="2" r:id="rId2"/>
+    <sheet name="Stocks" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -9517,4 +9518,1172 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C114"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" customWidth="1" width="21"/>
+    <col min="2" max="2" customWidth="1" width="20"/>
+    <col min="3" max="3" customWidth="1" width="14"/>
+    <col min="4" max="4" customWidth="1" width="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Asset Type</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Serial no</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Manufacture</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Model</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="B2" t="str">
+        <v>DVBGYY1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Dell</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Lattitude E7240</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="B3" t="str">
+        <v>R90MZVX7</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Lenovo</v>
+      </c>
+      <c r="D3" t="str">
+        <v>X1 Yoga</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Data Card</v>
+      </c>
+      <c r="B4" t="str">
+        <v>7042228703</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Airtel</v>
+      </c>
+      <c r="D4" t="str">
+        <v>MW40CJ-BATIN3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>SIM (only)</v>
+      </c>
+      <c r="B5" t="str">
+        <v>9205390764</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Airtel</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Airtel Smart</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>SIM (only)</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7043144456</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Airtel</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Airtel Smart</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="B7" t="str">
+        <v>5CG447487B</v>
+      </c>
+      <c r="C7" t="str">
+        <v>HP</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Elitebook 840 G1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Digital Camera</v>
+      </c>
+      <c r="B8" t="str">
+        <v>228063335362</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Canon</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Powershot A800</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Desktop</v>
+      </c>
+      <c r="B9" t="str">
+        <v>CDP-DTP-002</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Intel</v>
+      </c>
+      <c r="D9" t="str">
+        <v>DH55TC</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Data Card</v>
+      </c>
+      <c r="B10" t="str">
+        <v>7042421607</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Huawei</v>
+      </c>
+      <c r="D10" t="str">
+        <v>E3372H-607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="B11" t="str">
+        <v>MP10PLH4</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Lenovo</v>
+      </c>
+      <c r="D11" t="str">
+        <v>B40-80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B12" t="str">
+        <v>COMRACKGTK1001</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Comrack</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Network Rack 6U</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CRKHO001</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Comrack</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Comrack</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B14" t="str">
+        <v>CRKHO002</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Comrack</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Comrack</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B15" t="str">
+        <v>RACKGGN1001</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Comrack</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Comrack</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B16" t="str">
+        <v>VRKHO003</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Comrack</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Comrack</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B17" t="str">
+        <v>EMLOCK001</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Matrix</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B18" t="str">
+        <v>EMLOCK002</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Matrix</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B19" t="str">
+        <v>EMLOCK003</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Matrix</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B20" t="str">
+        <v>EMLOCK004</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Matrix</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B21" t="str">
+        <v>EXSWTCH01</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Matrix</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B22" t="str">
+        <v>EXSWTCH02</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Matrix</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B23" t="str">
+        <v>PMKIT001</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Generic</v>
+      </c>
+      <c r="D23" t="str">
+        <v>PMKIT001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B24" t="str">
+        <v>PMKIT002</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Generic</v>
+      </c>
+      <c r="D24" t="str">
+        <v>PMKIT002</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B25" t="str">
+        <v>PSCR001</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Generic</v>
+      </c>
+      <c r="D25" t="str">
+        <v>PSCR001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B26" t="str">
+        <v>PSCR002</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Generic</v>
+      </c>
+      <c r="D26" t="str">
+        <v>PSCR002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CRKHO004</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Comrack</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Comrack</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B28" t="str">
+        <v>C0716A0225</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D28" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B29" t="str">
+        <v>C0716A0429</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D29" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B30" t="str">
+        <v>C0716A0144</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D30" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B31" t="str">
+        <v>C0716A0143</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D31" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B32" t="str">
+        <v>C3517K0002</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D32" t="str">
+        <v>C168/200+</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B33" t="str">
+        <v>C0176A0174</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D33" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B34" t="str">
+        <v>C0716A0173</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D34" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B35" t="str">
+        <v>C3517K0063</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D35" t="str">
+        <v>C168/200+</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B36" t="str">
+        <v>C0716A0129</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D36" t="str">
+        <v>C168/200S</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B37" t="str">
+        <v>C0716A0203</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D37" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B38" t="str">
+        <v>C0716A0204</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D38" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B39" t="str">
+        <v>C3517G0211</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D39" t="str">
+        <v>C-168 with Lan Cable</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B40" t="str">
+        <v>C0716A0293</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D40" t="str">
+        <v>C168/200S</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B41" t="str">
+        <v>C0716A0313</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D41" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B42" t="str">
+        <v>C3517G0117</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D42" t="str">
+        <v>C-168</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B43" t="str">
+        <v>C0716A0253</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D43" t="str">
+        <v>C168/200S</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B44" t="str">
+        <v>C4921J0025</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D44" t="str">
+        <v>C168/200+</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B45" t="str">
+        <v>C0716A0354</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D45" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B46" t="str">
+        <v>TEA21180706</v>
+      </c>
+      <c r="C46" t="str">
+        <v>TSC</v>
+      </c>
+      <c r="D46" t="str">
+        <v>TE210</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B47" t="str">
+        <v>T085P21450067</v>
+      </c>
+      <c r="C47" t="str">
+        <v>TSC</v>
+      </c>
+      <c r="D47" t="str">
+        <v>TSC 20RB</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B48" t="str">
+        <v>24P21471731</v>
+      </c>
+      <c r="C48" t="str">
+        <v>TSC</v>
+      </c>
+      <c r="D48" t="str">
+        <v>TSC TTP 244 PRO</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B49" t="str">
+        <v>24P21471712</v>
+      </c>
+      <c r="C49" t="str">
+        <v>TSC</v>
+      </c>
+      <c r="D49" t="str">
+        <v>TSC TTP 244 PRO</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B50" t="str">
+        <v>24P21471739</v>
+      </c>
+      <c r="C50" t="str">
+        <v>TSC</v>
+      </c>
+      <c r="D50" t="str">
+        <v>TSC TTP 244 PRO</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B51" t="str">
+        <v>C01716A0261</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D51" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B52" t="str">
+        <v>C4921J0003</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D52" t="str">
+        <v>C168/200+</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B53" t="str">
+        <v>C4921J0004</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D53" t="str">
+        <v>C168/200+</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B54" t="str">
+        <v>C01716A0262</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D54" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B55" t="str">
+        <v>C0716A0249</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D55" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B56" t="str">
+        <v>C0716A0250</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D56" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B57" t="str">
+        <v>C0716A0103</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D57" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B58" t="str">
+        <v>C0716A0185</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D58" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B59" t="str">
+        <v>C3517K0081</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D59" t="str">
+        <v>C168/200DPI</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B60" t="str">
+        <v>C3517K0082</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D60" t="str">
+        <v>C168/200DPI</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B61" t="str">
+        <v>C0716A0226</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D61" t="str">
+        <v>C-168/200S</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Barcode Printer</v>
+      </c>
+      <c r="B62" t="str">
+        <v>C3517G0084</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Postek</v>
+      </c>
+      <c r="D62" t="str">
+        <v>C-168/200+</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B63" t="str">
+        <v>10009329</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D63" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B64" t="str">
+        <v>10008975</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D64" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B65" t="str">
+        <v>10008967</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D65" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B66" t="str">
+        <v>10008947</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D66" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B67" t="str">
+        <v>10008944</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D67" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B68" t="str">
+        <v>10008948</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D68" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B69" t="str">
+        <v>10008953</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D69" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B70" t="str">
+        <v>201406000308</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Vantage</v>
+      </c>
+      <c r="D70" t="str">
+        <v>VA-600-CTA</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B71" t="str">
+        <v>201406000411</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Vantage</v>
+      </c>
+      <c r="D71" t="str">
+        <v>VA-800-CTA</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B72" t="str">
+        <v>10009388</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D72" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B73" t="str">
+        <v>10008950</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D73" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B74" t="str">
+        <v>201406000280</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Vantage</v>
+      </c>
+      <c r="D74" t="str">
+        <v>VA-600-CTA</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B75" t="str">
+        <v>10008951</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D75" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B76" t="str">
+        <v>10009821</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D76" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B77" t="str">
+        <v>10008960</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D77" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B78" t="str">
+        <v>10008954</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D78" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B79" t="str">
+        <v>10008968</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D79" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Attendance Machine</v>
+      </c>
+      <c r="B80" t="str">
+        <v>10009333</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Matrix</v>
+      </c>
+      <c r="D80" t="str">
+        <v>COSEC DOOR V3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Amplifier</v>
+      </c>
+      <c r="B81" t="str">
+        <v>056392H81700045AE</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Bose</v>
+      </c>
+      <c r="D81" t="str">
+        <v>3448714410</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Amplifier</v>
+      </c>
+      <c r="B82" t="str">
+        <v>059881F81220034AE</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Bose</v>
+      </c>
+      <c r="D82" t="str">
+        <v>3448714410</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D82"/>
+  </ignoredErrors>
+</worksheet>
 </file>